--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/23_Çankırı_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/23_Çankırı_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA471003-FFD7-4A74-BD6B-543A3391DF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98628BBD-A3A5-4963-866E-BC542CB2640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{2C70FBC3-08BF-4043-B28A-7266C6F8B3EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{3E94E0B6-76CC-4528-9A74-C58AE61F6B37}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{848E8632-E1AE-44FC-ACDE-668AF99A6A51}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B153A6A5-F5DA-40B6-A634-2F0EB30D9739}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A8B42B8A-0596-4B41-8965-A9F121A8D0CC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7475373D-8090-467E-82D7-F767660C3060}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5AA76E77-519C-45C2-B12B-0CBE8D6FFDA6}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{69E738AE-E0F9-4CED-A285-CEB726B3116A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{65CB2349-4104-4D23-A8C5-939D9E7C410D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E673F68D-6741-4240-AF89-74C6FFAAF902}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A61CEBE0-1508-4C0F-8F35-DE030A673D30}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{9F68CF33-2459-446B-A825-CE49A96CE16C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E2CDEE51-815B-4BBD-90AE-5E9D820DD8FB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B98242EB-1244-49A5-9888-6BC3F8483802}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{8E942138-C6B0-4A77-B8B9-C317FA5B062A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{205DE0DD-C43F-4056-862A-86ABFB668DD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A93272-460B-425C-9FE9-08F2838F93CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2B1358-599E-41B3-8A3E-B4F3FFDD00BE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2543,7 +2543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91670338-E6CE-4D12-9445-9C10069FAE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC856C6E-183E-4600-AC3D-83C203AEA20D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3758,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80761FF8-3E9B-480F-A2B2-60CB5B4ECEB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2996CB-9AB7-4798-A9FA-A3572177AD24}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4973,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47483F2-1503-4503-9A26-601237EF6FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A8E506-6EF2-4E57-9199-9E0CA3E36362}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CC1DBC-0ED2-4D8B-ACBC-8B1229B65DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71885B31-F12B-4B68-869A-8291E403C6C3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7431,7 +7431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEB9782-EFA8-4DC9-A820-0B517F40173C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB27241-B1B8-4FB0-AA14-CDDD6FDC3FE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8686,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F24EB3-B473-4177-865C-37D288406AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DE71F4-AA38-4B5B-81DB-84E625DF6704}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9941,7 +9941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8AE8D1-C6A1-45FB-A9FF-38AE62ED4792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413D9813-0576-4817-BF70-E73F659F2E0E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11196,7 +11196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFBB9F8-4123-45D9-9BCB-CF430854767B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E9676-DEC0-4AD1-9865-3CA10B2826B6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12447,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1929B006-625B-463C-AAD1-AB17ACAE10E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DAC49C-FFDF-4A87-B7F8-889103F4D0E2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13684,7 +13684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03349CA-9FB4-440A-86D4-9A86EF7FD9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB6333E-D9D7-482E-9ABD-31F8EC8CE772}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14921,7 +14921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074E604-63CD-4367-8637-940ED626C19E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A36CA77-C206-4083-AEEB-860C416F8CCC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
